--- a/data/trans_orig/P70A02_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C2DC839-8A41-4314-A878-D3E6532AEF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5725659A-2CF5-4944-91AA-22DD855424D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7EE0123C-569A-4968-A473-E2C372B2B98D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8ECE4A9C-FD35-4906-AC46-C32DEE032ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>66,23%</t>
   </si>
   <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
   </si>
   <si>
     <t>37,97%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
   </si>
   <si>
     <t>58,43%</t>
   </si>
   <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>33,77%</t>
   </si>
   <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
   </si>
   <si>
     <t>62,03%</t>
   </si>
   <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
   </si>
   <si>
     <t>41,57%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>68,67%</t>
   </si>
   <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
   <si>
     <t>49,15%</t>
   </si>
   <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>68,7%</t>
   </si>
   <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>57,64%</t>
   </si>
   <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
   </si>
   <si>
     <t>64,04%</t>
   </si>
   <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
   <si>
     <t>31,3%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
   </si>
   <si>
     <t>42,36%</t>
   </si>
   <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
   </si>
   <si>
     <t>35,96%</t>
   </si>
   <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936D6360-1593-4562-9876-F19159D844C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB655C1-7DDC-4AB7-AE47-CD9316DF87AC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A02_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5725659A-2CF5-4944-91AA-22DD855424D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD6AE1C-47C2-4B0C-9659-7F94B56EAAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8ECE4A9C-FD35-4906-AC46-C32DEE032ABE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97141EA1-BAD5-4296-9546-2D4774FABAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>66,23%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
   </si>
   <si>
     <t>37,97%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
   </si>
   <si>
     <t>58,43%</t>
   </si>
   <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>33,77%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
   </si>
   <si>
     <t>62,03%</t>
   </si>
   <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
   </si>
   <si>
     <t>41,57%</t>
   </si>
   <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>68,67%</t>
   </si>
   <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>49,15%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>68,7%</t>
   </si>
   <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>57,64%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
   </si>
   <si>
     <t>64,04%</t>
   </si>
   <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
   </si>
   <si>
     <t>31,3%</t>
   </si>
   <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>42,36%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
   </si>
   <si>
     <t>35,96%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB655C1-7DDC-4AB7-AE47-CD9316DF87AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768AF83A-61FA-41E9-9351-2D5E3C180883}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A02_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD6AE1C-47C2-4B0C-9659-7F94B56EAAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6204AAA-AAD0-430A-A5B7-A3E609F630BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97141EA1-BAD5-4296-9546-2D4774FABAA3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE43BFD5-D318-44AD-BC49-064B7E8B60E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,22 +68,22 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>66,23%</t>
   </si>
   <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
   </si>
   <si>
     <t>37,97%</t>
   </si>
   <si>
-    <t>29,93%</t>
+    <t>30,27%</t>
   </si>
   <si>
     <t>47,53%</t>
@@ -92,10 +92,10 @@
     <t>58,43%</t>
   </si>
   <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>33,77%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
   </si>
   <si>
     <t>62,03%</t>
@@ -116,16 +116,16 @@
     <t>52,47%</t>
   </si>
   <si>
-    <t>70,07%</t>
+    <t>69,73%</t>
   </si>
   <si>
     <t>41,57%</t>
   </si>
   <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>68,67%</t>
   </si>
   <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
   <si>
     <t>49,15%</t>
   </si>
   <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,31 +197,31 @@
     <t>63,85%</t>
   </si>
   <si>
-    <t>73,55%</t>
+    <t>73,17%</t>
   </si>
   <si>
     <t>57,64%</t>
   </si>
   <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
   </si>
   <si>
     <t>64,04%</t>
   </si>
   <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
   </si>
   <si>
     <t>31,3%</t>
   </si>
   <si>
-    <t>26,45%</t>
+    <t>26,83%</t>
   </si>
   <si>
     <t>36,15%</t>
@@ -230,73 +230,73 @@
     <t>42,36%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
   </si>
   <si>
     <t>35,96%</t>
   </si>
   <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768AF83A-61FA-41E9-9351-2D5E3C180883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F608D-160B-40D5-B19E-286F7BF660BA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A02_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6204AAA-AAD0-430A-A5B7-A3E609F630BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD5D499-B708-45B7-A05D-FEFEE2B232D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE43BFD5-D318-44AD-BC49-064B7E8B60E0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4693E1E2-713A-49BA-A376-F28ACBE41E50}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F608D-160B-40D5-B19E-286F7BF660BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24120663-514E-47EE-A2E0-C436A66EAD24}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
